--- a/express-routes/portfolio/items/items.xlsx
+++ b/express-routes/portfolio/items/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meatch/MeatchPod/WEBWORKS/Gohman-Docker/html/mitchellgohman.local/express-routes/portfolio/items/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8F1625-D1B4-F846-9FF4-7CBC151F97DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83E4831-5565-1E47-9A58-97EBBEFFFC83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="27220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="109">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
   <si>
     <t>showHide</t>
   </si>
@@ -301,8 +298,51 @@
     <t>My wife Christin Designed and I developed this Wordpress web application. Custom theme, tailored to client needs.</t>
   </si>
   <si>
+    <t>React/Redux/Context, Laravel, Docker for Local Development, Styled-Components, Less, Accessibility and Training, Custom Theme, HTML, CSS, MYSQL, Decision Trees, Responsive and Mobile First, Shared Libraries, Legacy Zend, Draw.io Diagramming, NPM Library, generating graphic assets (jpgs, pngs, svg).</t>
+  </si>
+  <si>
+    <t>Worked with a Designer to build this Wordpress website that provides Home Listings in LA and Promotes the business.</t>
+  </si>
+  <si>
+    <t>Team CrossFit Academy and I go way back, as I not only Developed and maintained thier website, I also trained with them. Truly an amazing service, and the owner gave me a lot of creative freedom with the website to help promote their business and inform their clientelle.</t>
+  </si>
+  <si>
+    <t>Developed a Customer Relationship Manager for Landmark to assist in keeping track of lead gernation, and reduce overcalling potential customers.</t>
+  </si>
+  <si>
+    <t>Worked wioth designer to create this non-traditional layout. A lot of fun challenges in this project.</t>
+  </si>
+  <si>
+    <t>Designed and developed this website, including the illustrations/graphics, color scheme translated into a Wordpress application to promote the owner, her business, and products.</t>
+  </si>
+  <si>
+    <t>Designed and developed this custom Wordpress theme.</t>
+  </si>
+  <si>
+    <t>A static personal portfolio for Sean Dollins. Sean designed it, and I translated it to web.</t>
+  </si>
+  <si>
+    <t>Custom web applicaton using out of the box php, mysql, javascript, html and css.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;My wife, (&lt;a href='https://christinagohman.com' target='xtina'&gt;Christina Gohman&lt;/a&gt;) desaigned and I developed this Wordpress Custom theme for our Wedding. &lt;/&gt;
+&lt;p&gt;It was used to keep all of our guests informed, and boy did that make all the difference in the world. Still one of my favorite designs, is that cause it was my wedding? Nah.&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t>Converted web application to React/Redux/Context. Also employs front and back servers for security, Authorize.net shopping cart for Catlogue order form, Bidding Application,. Laravel, Laravel Corcel Wordpress, Styled-Components, Less, Custom Theme, HTML, CSS, MYSQL, Mongo, Redis Caching, Responsive and Mobile First, Custom Wordpress CMS Plugin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMS, Custom Design, Responsive, Mobile First, Laravel 5, HTML, CSS, SASS, JS, JQUERY, Bootstrap, and MYSQL, </t>
+  </si>
+  <si>
+    <t>Wordpress, Custom Theme, HTML, CSS, SASS, JS, JQUERY, PHP &amp;amp; MYSQL.</t>
+  </si>
+  <si>
+    <t>Need to update slideshow on home page? Not showing images.</t>
+  </si>
+  <si>
     <t>&lt;p&gt;
-    Formerly Montrose Travel, Corporate Travel Management (CTM) handles all sorts of travel needs. I  helped to develop and maintain their Loyalty appliedctions which serve Banks and Credit Unions, letting their customers use their points to book a Flight, Hotel, Car, Cruises, and Travel Packages. 
+    Formerly Montrose Travel, Corporate Travel Management (CTM) handles all sorts of travel needs. I  helped to develop and maintain their Loyalty applications which serve Banks and Credit Unions, letting their customers use their points to book a Flight, Hotel, Car, Cruises, and Travel Packages. 
 &lt;/p&gt;
 &lt;p&gt;
     CTM has given me the opportunity to work in large teams (Agile) with many developers, quality assurance (QA), Scrum Masters, Product Managers, Business Analysts, Dev Managers, etc. Working on this team has expanded my ability to not only work with others, but to share code. 
@@ -324,50 +364,10 @@
 &lt;/ul&gt;</t>
   </si>
   <si>
-    <t>React/Redux/Context, Laravel, Docker for Local Development, Styled-Components, Less, Accessibility and Training, Custom Theme, HTML, CSS, MYSQL, Decision Trees, Responsive and Mobile First, Shared Libraries, Legacy Zend, Draw.io Diagramming, NPM Library, generating graphic assets (jpgs, pngs, svg).</t>
-  </si>
-  <si>
-    <t>Worked with a Designer to build this Wordpress website that provides Home Listings in LA and Promotes the business.</t>
-  </si>
-  <si>
-    <t>Team CrossFit Academy and I go way back, as I not only Developed and maintained thier website, I also trained with them. Truly an amazing service, and the owner gave me a lot of creative freedom with the website to help promote their business and inform their clientelle.</t>
-  </si>
-  <si>
-    <t>Developed a Customer Relationship Manager for Landmark to assist in keeping track of lead gernation, and reduce overcalling potential customers.</t>
-  </si>
-  <si>
-    <t>Worked wioth designer to create this non-traditional layout. A lot of fun challenges in this project.</t>
-  </si>
-  <si>
-    <t>Designed and developed this website, including the illustrations/graphics, color scheme translated into a Wordpress application to promote the owner, her business, and products.</t>
-  </si>
-  <si>
-    <t>Designed and developed this custom Wordpress theme.</t>
-  </si>
-  <si>
-    <t>A static personal portfolio for Sean Dollins. Sean designed it, and I translated it to web.</t>
-  </si>
-  <si>
-    <t>Custom web applicaton using out of the box php, mysql, javascript, html and css.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;My wife, (&lt;a href='https://christinagohman.com' target='xtina'&gt;Christina Gohman&lt;/a&gt;) desaigned and I developed this Wordpress Custom theme for our Wedding. &lt;/&gt;
-&lt;p&gt;It was used to keep all of our guests informed, and boy did that make all the difference in the world. Still one of my favorite designs, is that cause it was my wedding? Nah.&lt;/p&gt; </t>
-  </si>
-  <si>
-    <t>Converted web application to React/Redux/Context. Also employs front and back servers for security, Authorize.net shopping cart for Catlogue order form, Bidding Application,. Laravel, Laravel Corcel Wordpress, Styled-Components, Less, Custom Theme, HTML, CSS, MYSQL, Mongo, Redis Caching, Responsive and Mobile First, Custom Wordpress CMS Plugin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS, Custom Design, Responsive, Mobile First, Laravel 5, HTML, CSS, SASS, JS, JQUERY, Bootstrap, and MYSQL, </t>
-  </si>
-  <si>
-    <t>Wordpress, Custom Theme, HTML, CSS, SASS, JS, JQUERY, PHP &amp;amp; MYSQL.</t>
-  </si>
-  <si>
-    <t>Need to update slideshow on home page? Not showing images.</t>
-  </si>
-  <si>
-    <t>pdfs</t>
+    <t>padded</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -1224,16 +1224,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="45" style="1" customWidth="1"/>
-    <col min="6" max="7" width="88" style="2" customWidth="1"/>
-    <col min="8" max="8" width="45.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="53.6640625" style="1" customWidth="1"/>
+    <col min="1" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="45" style="1" customWidth="1"/>
+    <col min="7" max="8" width="88" style="2" customWidth="1"/>
+    <col min="9" max="9" width="45.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="58.1640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="69.1640625" style="1" customWidth="1"/>
     <col min="12" max="13" width="7.83203125" style="1" customWidth="1"/>
@@ -1241,688 +1240,748 @@
     <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="17">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="18" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="34">
-      <c r="A2" s="1">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:14" ht="18" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="1">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="119">
-      <c r="A3" s="1">
+      <c r="G3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="1">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="1">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="G5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="1">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="1">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="1">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="1">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="1">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="1">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
         <v>17</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
         <v>18</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="409.6">
-      <c r="A4" s="1">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="F19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="E20" s="1">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="85">
-      <c r="A5" s="1">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="68">
-      <c r="A6" s="1">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="51">
-      <c r="A7" s="1">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="34">
-      <c r="A8" s="1">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="34">
-      <c r="A9" s="1">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="F20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="51">
-      <c r="A10" s="1">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="34">
-      <c r="A11" s="1">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="34">
-      <c r="A12" s="1">
+      <c r="C21" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="17">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="85">
-      <c r="A14" s="1">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="34">
-      <c r="A15" s="1">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="17">
-      <c r="A16" s="1">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>7</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="17">
-      <c r="A17" s="1">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="17">
-      <c r="A18" s="1">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="17">
-      <c r="A19" s="1">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="17">
-      <c r="A20" s="1">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="17">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="1">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="I21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="L21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/express-routes/portfolio/items/items.xlsx
+++ b/express-routes/portfolio/items/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meatch/MeatchPod/WEBWORKS/Gohman-Docker/html/mitchellgohman.local/express-routes/portfolio/items/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83E4831-5565-1E47-9A58-97EBBEFFFC83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED039BF-542F-5A4C-8DB8-BD546A566045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="27220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="108">
   <si>
     <t>showHide</t>
   </si>
   <si>
     <t>archived</t>
-  </si>
-  <si>
-    <t>sortOrder</t>
   </si>
   <si>
     <t>title</t>
@@ -1220,32 +1217,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="45" style="1" customWidth="1"/>
-    <col min="7" max="8" width="88" style="2" customWidth="1"/>
-    <col min="9" max="9" width="45.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="58.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="69.1640625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="7.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="102.33203125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="45" style="1" customWidth="1"/>
+    <col min="6" max="7" width="88" style="2" customWidth="1"/>
+    <col min="8" max="8" width="45.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="58.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="69.1640625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="7.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="102.33203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1256,20 +1253,20 @@
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>6</v>
@@ -1280,708 +1277,645 @@
       <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="1">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1">
+    </row>
+    <row r="3" spans="1:13" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="1">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1">
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1">
+    </row>
+    <row r="5" spans="1:13" ht="18" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1">
+      <c r="L5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1">
+    </row>
+    <row r="7" spans="1:13" ht="18" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1">
+      <c r="L7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1">
+      <c r="L8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1">
+        <v>13</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="1">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="1">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="1">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1">
+    </row>
+    <row r="13" spans="1:13" ht="18" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="1">
-        <v>12</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1">
+      <c r="L13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:13" ht="18" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="1">
-        <v>7</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1">
-        <v>14</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="1">
-        <v>15</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1">
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="1">
-        <v>16</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="18" customHeight="1">
+      <c r="L17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="18" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="1">
-        <v>17</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="18" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="1">
-        <v>18</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="18" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="18" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="1">
-        <v>19</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1">
+    </row>
+    <row r="21" spans="1:12" ht="18" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="1">
-        <v>20</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/express-routes/portfolio/items/items.xlsx
+++ b/express-routes/portfolio/items/items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meatch/MeatchPod/WEBWORKS/Gohmans/christinagohman.local/express-routes/portfolio/items/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4102AD9F-6C10-A244-AD2A-D7382231327B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11944E8-196E-8B47-BC60-882D035A06D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3300" windowWidth="68800" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16120" yWindow="29260" windowWidth="38400" windowHeight="22080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>InDesign, Photoshop, Illustrator</t>
   </si>
   <si>
-    <t>Donny Osmond Home Furniture Catalog / Editorial Design / Hangtag</t>
-  </si>
-  <si>
     <t xml:space="preserve">Editorial Design  </t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t xml:space="preserve">Print + Digital </t>
   </si>
   <si>
-    <t>Scott Living (SL) Furniture Catalog / Editorial Design, Showroom Banners / Hang-tags</t>
-  </si>
-  <si>
     <t>Layout aesthetic + developing working files, complying with the evolving new entity of SL / SBG. Collecting data, adjusting studio photography, page and spread layouts, cover + developing signature data for print.</t>
   </si>
   <si>
@@ -68,9 +62,6 @@
   </si>
   <si>
     <t>POP / Editorial Design / Give-Aways</t>
-  </si>
-  <si>
-    <t>Coaster Furniture Editorial, POP and Give-Aways. *give-away samples available*</t>
   </si>
   <si>
     <t>Illustrator, InDesign, Photoshop</t>
@@ -165,13 +156,22 @@
     <t>development</t>
   </si>
   <si>
-    <t>highlghts</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
     <t>pdfs</t>
+  </si>
+  <si>
+    <t>highlights</t>
+  </si>
+  <si>
+    <t>Donny Osmond Home&lt;br /&gt; Furniture Catalog / Editorial Design / Hangtag</t>
+  </si>
+  <si>
+    <t>Scott Living (SL)&lt;br /&gt; Furniture Catalog / Editorial Design, Showroom Banners / Hang-tags</t>
+  </si>
+  <si>
+    <t>Coaster&lt;br /&gt; Furniture Editorial, POP and Give-Aways. *give-away samples available*</t>
   </si>
 </sst>
 </file>
@@ -1040,9 +1040,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1"/>
@@ -1063,48 +1063,48 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -1113,13 +1113,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>1</v>
@@ -1128,22 +1128,22 @@
         <v>2</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -1152,37 +1152,37 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -1191,31 +1191,31 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -1224,30 +1224,30 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="K5" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
@@ -1256,28 +1256,28 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M6" s="4"/>
     </row>

--- a/express-routes/portfolio/items/items.xlsx
+++ b/express-routes/portfolio/items/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meatch/MeatchPod/WEBWORKS/Gohmans/christinagohman.local/express-routes/portfolio/items/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11944E8-196E-8B47-BC60-882D035A06D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F4EBE6-FF46-534E-A344-DB12CE8F13C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16120" yWindow="29260" windowWidth="38400" windowHeight="22080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,12 +108,6 @@
     <t>https://perennialstrength.com/</t>
   </si>
   <si>
-    <t>2016.pdf, 2017.pdf, 2018.pdf</t>
-  </si>
-  <si>
-    <t>2017-2018.pdf, 2018-2019.pdf</t>
-  </si>
-  <si>
     <t>1.Donny-Osmond</t>
   </si>
   <si>
@@ -172,6 +166,12 @@
   </si>
   <si>
     <t>Coaster&lt;br /&gt; Furniture Editorial, POP and Give-Aways. *give-away samples available*</t>
+  </si>
+  <si>
+    <t>2016.pdf,2017.pdf,2018.pdf</t>
+  </si>
+  <si>
+    <t>2017-2018.pdf,2018-2019.pdf</t>
   </si>
 </sst>
 </file>
@@ -1040,9 +1040,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1"/>
@@ -1063,48 +1063,48 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>1</v>
@@ -1134,16 +1134,16 @@
         <v>5</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -1158,7 +1158,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>9</v>
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -1197,7 +1197,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>9</v>
@@ -1209,13 +1209,13 @@
         <v>15</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -1242,12 +1242,12 @@
         <v>20</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
@@ -1274,7 +1274,7 @@
         <v>25</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>26</v>

--- a/express-routes/portfolio/items/items.xlsx
+++ b/express-routes/portfolio/items/items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meatch/MeatchPod/WEBWORKS/Gohmans/christinagohman.local/express-routes/portfolio/items/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F4EBE6-FF46-534E-A344-DB12CE8F13C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B8A5A6-28D0-EC4F-96E7-1F5491D1DDD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16120" yWindow="29260" windowWidth="38400" windowHeight="22080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17980" yWindow="29260" windowWidth="33600" windowHeight="19080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>title</t>
   </si>
@@ -58,21 +58,12 @@
     <t>Scott Brothers Global 2019 Tennessee Summit Attendee. Joined with other licensees for the introduction and reveal of the Scott Living brand. </t>
   </si>
   <si>
-    <t>COASTER FURNITURE</t>
-  </si>
-  <si>
     <t>POP / Editorial Design / Give-Aways</t>
   </si>
   <si>
     <t>Illustrator, InDesign, Photoshop</t>
   </si>
   <si>
-    <t xml:space="preserve">TOP: create a fun and engaging visual informational campaign that included a brochure, stand, poster, and email blast for PROP 65. Explored visual engagement to take the viewer on a tour of the complex topic.
-BOTTOM: Worked with freelance artist to create and manipulate characters. Developed an array of patterns in Illustrator to be displayed on “giveaways” such as recycled bags, umbrellas and other media.
-Created mocks and hangtag. 
-Samples available.  </t>
-  </si>
-  <si>
     <t>Web Collateral</t>
   </si>
   <si>
@@ -85,11 +76,6 @@
     <t>InDesign, Photoshop, Illustrator, Mailchimp, Dreamweaver, ISSUU</t>
   </si>
   <si>
-    <t>TOP: communicate with the audience about an error from the original email. The goal was to present something fun and convey accurate information to the end user minimizing frustration and acknowledging the mistake. 
-2: Web slides hosted on one of the Coaster Company websites. Based on the time of year, slides were created to tell a story of a particular event: market show announcements, social media links, special promotions. 
-3: Develop a visual web portal that allows end user to access web friendly converted print material: catalogs, images and informational spread sheets.</t>
-  </si>
-  <si>
     <t>PERENNIAL STRENGTH</t>
   </si>
   <si>
@@ -172,6 +158,25 @@
   </si>
   <si>
     <t>2017-2018.pdf,2018-2019.pdf</t>
+  </si>
+  <si>
+    <t>CF PRINT MEDIA</t>
+  </si>
+  <si>
+    <t>CF WEB MEDIA</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;TOP: create a fun and engaging visual informational campaign that included a brochure, stand, poster, and email blast for PROP 65. Explored visual engagement to take the viewer on a tour of the complex topic.&lt;/p&gt;
+&lt;p&gt;BOTTOM: Worked with freelance artist to create and manipulate characters. Developed an array of patterns in Illustrator to be displayed on “giveaways” such as recycled bags, umbrellas and other media.&lt;/p&gt;
+&lt;p&gt;
+    Created mocks and hangtag. 
+    Samples available. &lt;br/&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;TOP: communicate with the audience about an error from the original email. The goal was to present something fun and convey accurate information to the end user minimizing frustration and acknowledging the mistake. &lt;/p&gt;
+&lt;p&gt;2: Web slides hosted on one of the Coaster Company websites. Based on the time of year, slides were created to tell a story of a particular event: market show announcements, social media links, special promotions. &lt;/p&gt;
+&lt;p&gt;3: Develop a visual web portal that allows end user to access web friendly converted print material: catalogs, images and informational spread sheets.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -1040,9 +1045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1"/>
@@ -1063,48 +1068,48 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -1119,7 +1124,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>1</v>
@@ -1134,16 +1139,16 @@
         <v>5</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -1158,7 +1163,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>9</v>
@@ -1173,16 +1178,16 @@
         <v>11</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -1191,31 +1196,31 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -1224,30 +1229,30 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="I5" s="5" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
@@ -1256,28 +1261,28 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M6" s="4"/>
     </row>

--- a/express-routes/portfolio/items/items.xlsx
+++ b/express-routes/portfolio/items/items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meatch/MeatchPod/WEBWORKS/Gohmans/christinagohman.local/express-routes/portfolio/items/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B8A5A6-28D0-EC4F-96E7-1F5491D1DDD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FFE96C-6166-E549-B866-66684819762B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17980" yWindow="29260" windowWidth="33600" windowHeight="19080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="13900" windowWidth="68800" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,6 @@
     <t xml:space="preserve">Editorial Design  </t>
   </si>
   <si>
-    <t>Layout aesthetic; content building; creating the flow of each category and collection as well as supporting items; call outs; content development; detail to user navigation from start to end</t>
-  </si>
-  <si>
-    <t>Donny Osmond himself expressed his gratitude to me personally for the vision created that represents his brand during a Las Vegas Market Show!</t>
-  </si>
-  <si>
     <t>SCOTT LIVING</t>
   </si>
   <si>
@@ -52,9 +46,6 @@
     <t xml:space="preserve">Print + Digital </t>
   </si>
   <si>
-    <t>Layout aesthetic + developing working files, complying with the evolving new entity of SL / SBG. Collecting data, adjusting studio photography, page and spread layouts, cover + developing signature data for print.</t>
-  </si>
-  <si>
     <t>Scott Brothers Global 2019 Tennessee Summit Attendee. Joined with other licensees for the introduction and reveal of the Scott Living brand. </t>
   </si>
   <si>
@@ -67,9 +58,6 @@
     <t>Web Collateral</t>
   </si>
   <si>
-    <t>Oops! Correction to an email campaign sent with broken links. Also shown, web slides, and digital web assets</t>
-  </si>
-  <si>
     <t>Digital, web</t>
   </si>
   <si>
@@ -88,9 +76,6 @@
     <t>Print, Web</t>
   </si>
   <si>
-    <t>Create identity for a Cross-Fit coach. Developed color scheme, logo, social media banners, mailers, business card and the website visual aspects and navigation. Worked with a web developer for live website:</t>
-  </si>
-  <si>
     <t>https://perennialstrength.com/</t>
   </si>
   <si>
@@ -166,17 +151,33 @@
     <t>CF WEB MEDIA</t>
   </si>
   <si>
+    <t>Oops! Correction to an email campaign sent with broken links. Also shown, web slides, and digital web assets.</t>
+  </si>
+  <si>
+    <t>Layout aesthetic; content building; creating the navigation of each category and collection as well as supporting items; callouts; content development; detail to user navigation from start to end</t>
+  </si>
+  <si>
+    <t>Layout aesthetic + developing working files, complying with the developing entity of SL / SBG. Collecting data, adjusting studio photography, page and spread layouts, cover + developing signature data for print.</t>
+  </si>
+  <si>
     <t>&lt;p&gt;TOP: create a fun and engaging visual informational campaign that included a brochure, stand, poster, and email blast for PROP 65. Explored visual engagement to take the viewer on a tour of the complex topic.&lt;/p&gt;
-&lt;p&gt;BOTTOM: Worked with freelance artist to create and manipulate characters. Developed an array of patterns in Illustrator to be displayed on “giveaways” such as recycled bags, umbrellas and other media.&lt;/p&gt;
+&lt;p&gt;BOTTOM: Worked with freelance artists to create and manipulate characters. Developed an array of patterns in Illustrator displayed on “giveaways” such as recycled bags, umbrellas, and other media.&lt;/p&gt;
 &lt;p&gt;
-    Created mocks and hangtag. 
-    Samples available. &lt;br/&gt;
+    Created mocks and hangtag.&lt;br /&gt;
+    Samples available.
 &lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;TOP: communicate with the audience about an error from the original email. The goal was to present something fun and convey accurate information to the end user minimizing frustration and acknowledging the mistake. &lt;/p&gt;
-&lt;p&gt;2: Web slides hosted on one of the Coaster Company websites. Based on the time of year, slides were created to tell a story of a particular event: market show announcements, social media links, special promotions. &lt;/p&gt;
-&lt;p&gt;3: Develop a visual web portal that allows end user to access web friendly converted print material: catalogs, images and informational spread sheets.&lt;/p&gt;</t>
+    <t>&lt;p&gt;TOP: communicate with the audience about an error from the original email. The goal was to present something fun and convey accurate information to the end-user minimizing frustration and acknowledging the mistake. &lt;/p&gt;
+&lt;p&gt;2: Web slides hosted on one of the Coaster Company websites. Based on the time of year, I created slides that told a story of a particular event: market show announcements, social media links, special promotions. &lt;/p&gt;
+&lt;p&gt;3: Develop a visual web portal that allows end-user to get access to web-friendly converted print material: catalogs, images, and informational spreadsheets.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Create an identity for a Cross-Fit coach. Developed color scheme, logo, social media banners, mailers, business cards, and website visual aspects and navigation. Worked with a web developer for live website:&lt;/p&gt;
+&lt;p&gt;visit: perennialstrength.com&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Donny Osmond himself expressed his gratitude to me personally for the vision created that represents his brand at the 2018 Las Vegas Market Show!</t>
   </si>
 </sst>
 </file>
@@ -1045,9 +1046,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1"/>
@@ -1068,48 +1069,48 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -1118,13 +1119,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>1</v>
@@ -1133,22 +1134,22 @@
         <v>2</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -1157,37 +1158,37 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -1196,31 +1197,31 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -1229,30 +1230,30 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="K5" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
@@ -1261,28 +1262,28 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M6" s="4"/>
     </row>

--- a/express-routes/portfolio/items/items.xlsx
+++ b/express-routes/portfolio/items/items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meatch/MeatchPod/WEBWORKS/Gohmans/christinagohman.local/express-routes/portfolio/items/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FFE96C-6166-E549-B866-66684819762B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AB30B1-16B2-5944-9FAE-03C3C7FA12C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13900" windowWidth="68800" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="14640" windowWidth="68800" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>title</t>
   </si>
@@ -179,12 +179,31 @@
   <si>
     <t>Donny Osmond himself expressed his gratitude to me personally for the vision created that represents his brand at the 2018 Las Vegas Market Show!</t>
   </si>
+  <si>
+    <t>FULL PETENTIAL</t>
+  </si>
+  <si>
+    <t>Identity, Packaging</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Objective: An internship turned into a paid gig! Created company identity. Assets included illustrative logo, type logo, color platform, mailers, and packaging of canine and feline treats.&lt;/p&gt;
+&lt;p&gt;Packaged samples available.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>6.Full-Petential</t>
+  </si>
+  <si>
+    <t>Full Petential Identity</t>
+  </si>
+  <si>
+    <t>Print, Packaging</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1044,19 +1063,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10.83203125" style="3"/>
     <col min="4" max="4" width="25.83203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="45.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="45.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="76.33203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="29.33203125" style="5" customWidth="1"/>
     <col min="8" max="8" width="45.1640625" style="5" customWidth="1"/>
     <col min="9" max="9" width="59.6640625" style="5" customWidth="1"/>
@@ -1067,7 +1086,7 @@
     <col min="14" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1108,7 +1127,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1">
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -1147,7 +1166,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1">
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -1186,7 +1205,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1">
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -1219,7 +1238,7 @@
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1">
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -1251,7 +1270,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1">
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1286,6 +1305,38 @@
         <v>18</v>
       </c>
       <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
